--- a/website2/static/files/OTTAA_onboarding_test_cases.xlsx
+++ b/website2/static/files/OTTAA_onboarding_test_cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
   <si>
     <t>Set Up</t>
   </si>
@@ -141,6 +141,78 @@
   <si>
     <t>Two possible situations:If the user completes the previous Steps: The system should navigate to the next window.
 Else the system stays in the same window</t>
+  </si>
+  <si>
+    <t>TC -007</t>
+  </si>
+  <si>
+    <t>Short Tutorial</t>
+  </si>
+  <si>
+    <t>Select the short tutorial button</t>
+  </si>
+  <si>
+    <t>1. Choose the button short tutorial
+2. The system should show the short tutorial</t>
+  </si>
+  <si>
+    <t>A short tutorial should be shown.</t>
+  </si>
+  <si>
+    <t>TC -008</t>
+  </si>
+  <si>
+    <t>Book a demo</t>
+  </si>
+  <si>
+    <t>Select the book a demo button</t>
+  </si>
+  <si>
+    <t>1. Choose the button book a demo
+2. The system should show the book demo tutorial
+3. Touch the button Book a demo
+4. The system should open a webpage
+5. Book a demo</t>
+  </si>
+  <si>
+    <t>The user should book a demo.</t>
+  </si>
+  <si>
+    <t>TC -009</t>
+  </si>
+  <si>
+    <t>Copy Link</t>
+  </si>
+  <si>
+    <t>Copy the OTTAA Auto-Workshop Link</t>
+  </si>
+  <si>
+    <t>1. Choose The button Do A Guided Workshop
+2. Choose The button says Copy URL.
+3. Dismiss OTTAA.
+4. Open A Web Browser and paste the link here.</t>
+  </si>
+  <si>
+    <t>Go to OTTAA Workshop</t>
+  </si>
+  <si>
+    <t>TC -010+</t>
+  </si>
+  <si>
+    <t>Receive an email</t>
+  </si>
+  <si>
+    <t>Receive an email with the OTTAA workshop link.</t>
+  </si>
+  <si>
+    <t>1. Choose The button Do A Guided Workshop
+2. Choose The button says Email Me.
+3. Await the Expected mail
+4. Open your mailbox and check your emails.
+If you don't find it go to the Spam mailbox.</t>
+  </si>
+  <si>
+    <t>Received an OTTAA email.</t>
   </si>
   <si>
     <t>Avatar</t>
@@ -374,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -439,10 +511,29 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -975,113 +1066,241 @@
     <row r="22">
       <c r="A22" s="23"/>
     </row>
+    <row r="23">
+      <c r="A23" s="23"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="2"/>
+    </row>
     <row r="25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="B26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="26" t="s">
+      <c r="C26" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="29"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="27">
+        <v>8.0</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="29"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="27">
+        <v>9.0</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="29"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="27">
+        <v>10.0</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="30"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="31"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="31"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B33" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C33" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D33" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E33" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F33" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G33" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="20">
+    <row r="34">
+      <c r="A34" s="20">
         <v>11.0</v>
       </c>
-      <c r="B27" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="29"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="20">
+      <c r="B34" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="36"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="20">
         <v>12.0</v>
       </c>
-      <c r="B28" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="29"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="20">
+      <c r="B35" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="36"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="20">
         <v>13.0</v>
       </c>
-      <c r="B29" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="30"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="23"/>
+      <c r="B36" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="37"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A16:G16"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A24:G24"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
